--- a/src/main/resources/CompilerDictionary/LocatorDictionary/CapellaForm.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/CapellaForm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Automation/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EB2D1A-C173-4993-84DA-087860E81927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D11EC3-3330-5445-9A23-CE065673C871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{76E70F23-58AA-4875-A509-092BA9F167A3}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="19420" windowHeight="10420" xr2:uid="{76E70F23-58AA-4875-A509-092BA9F167A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Sno</t>
   </si>
@@ -123,13 +123,22 @@
   </si>
   <si>
     <t>CapellaPage_Button_AcceptCookies</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +166,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,12 +194,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,19 +535,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574DF6DB-DC03-4D40-8F82-B3219EA04C50}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.81640625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="2" max="2" width="66.83203125" customWidth="1"/>
+    <col min="3" max="3" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +558,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -551,8 +572,11 @@
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -562,8 +586,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -573,8 +600,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -584,8 +614,11 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -595,8 +628,11 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -606,8 +642,11 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -617,8 +656,11 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -628,8 +670,11 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -639,8 +684,11 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -650,8 +698,11 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -661,8 +712,11 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -672,8 +726,11 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -682,6 +739,9 @@
       </c>
       <c r="C14" t="s">
         <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
